--- a/data/trans_orig/PER_CONT_AIRE_OTROS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_OTROS-Clase-trans_orig.xlsx
@@ -6679,97 +6679,97 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>1084</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>12,61%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>1139</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>9,99%</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>1156</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_CONT_AIRE_OTROS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_OTROS-Clase-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente otro origen en País Vasco</t>
+          <t>Percepción contaminación atmosférica procedente otro origen en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3978,7 +3978,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente otro origen en C.Valenciana</t>
+          <t>Percepción contaminación atmosférica procedente otro origen en C.Valenciana (tasa de respuesta: 93,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_CONT_AIRE_OTROS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_OTROS-Clase-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>133860</t>
+          <t>151541</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>130100</t>
+          <t>147901</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>136792</t>
+          <t>154721</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,19%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>129940</t>
+          <t>158571</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>125996</t>
+          <t>154597</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>132906</t>
+          <t>161483</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>89,01%</t>
+          <t>90,03%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>86,3%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>263799</t>
+          <t>310112</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>258610</t>
+          <t>304897</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>268329</t>
+          <t>314841</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>89,36%</t>
+          <t>90,25%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>87,6%</t>
+          <t>88,73%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>91,62%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9586</t>
+          <t>9341</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7163</t>
+          <t>6821</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12903</t>
+          <t>12223</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10190</t>
+          <t>11558</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7763</t>
+          <t>8834</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13463</t>
+          <t>14980</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>19776</t>
+          <t>20899</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>15835</t>
+          <t>16858</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>24099</t>
+          <t>24777</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>7,21%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5777</t>
+          <t>6617</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4117</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8477</t>
+          <t>9303</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5859</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8410</t>
+          <t>8429</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>11636</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>8751</t>
+          <t>9560</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>15057</t>
+          <t>16177</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1143,17 +1143,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1190,32 +1190,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>72685</t>
+          <t>83205</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>69384</t>
+          <t>80279</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75452</t>
+          <t>85833</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87,95%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,96%</t>
+          <t>86,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>98920</t>
+          <t>113798</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>95905</t>
+          <t>110555</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>101447</t>
+          <t>116476</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>89,82%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,11%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,32 +1260,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>171605</t>
+          <t>197003</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>167323</t>
+          <t>192524</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>175016</t>
+          <t>200690</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>90,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>86,8%</t>
+          <t>88,13%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>91,86%</t>
         </is>
       </c>
     </row>
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6360</t>
+          <t>5663</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9202</t>
+          <t>8206</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>7326</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5622</t>
+          <t>5279</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10608</t>
+          <t>9820</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>14091</t>
+          <t>12989</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>11224</t>
+          <t>9975</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>17712</t>
+          <t>15986</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3599</t>
+          <t>4015</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2080</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5659</t>
+          <t>6404</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3483</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2284</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5519</t>
+          <t>6929</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7081</t>
+          <t>8476</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4974</t>
+          <t>6224</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9944</t>
+          <t>11820</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,41%</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1646,32 +1646,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>148815</t>
+          <t>142155</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>145000</t>
+          <t>138330</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151769</t>
+          <t>145013</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>90,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,18%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,32 +1681,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>56246</t>
+          <t>54696</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>53377</t>
+          <t>52679</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>58048</t>
+          <t>56467</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>83,45%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,32 +1716,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>205061</t>
+          <t>196851</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>200258</t>
+          <t>192307</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>209035</t>
+          <t>200508</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>90,07%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>87,99%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>91,74%</t>
         </is>
       </c>
     </row>
@@ -1759,32 +1759,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10350</t>
+          <t>9419</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7673</t>
+          <t>7199</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13621</t>
+          <t>12210</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,32 +1794,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5250</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3727</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7591</t>
+          <t>6184</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,32 +1829,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>15600</t>
+          <t>13641</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>12346</t>
+          <t>10626</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>19562</t>
+          <t>17182</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>7,86%</t>
         </is>
       </c>
     </row>
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5276</t>
+          <t>5603</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3514</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7478</t>
+          <t>8145</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1310</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4316</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>7741</t>
+          <t>8059</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>5886</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>10586</t>
+          <t>11031</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,17 +2055,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>159635</t>
+          <t>159685</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>155961</t>
+          <t>156315</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>163043</t>
+          <t>162537</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,57%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,32 +2137,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>164739</t>
+          <t>172537</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>160638</t>
+          <t>168850</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>167948</t>
+          <t>175827</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2172,32 +2172,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>324374</t>
+          <t>332221</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>318948</t>
+          <t>327367</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>328970</t>
+          <t>336780</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>89,06%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>92,65%</t>
         </is>
       </c>
     </row>
@@ -2215,32 +2215,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12432</t>
+          <t>11815</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9618</t>
+          <t>9115</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15734</t>
+          <t>14777</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,32 +2250,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11886</t>
+          <t>10658</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9097</t>
+          <t>8116</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15407</t>
+          <t>13661</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,32 +2285,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>24318</t>
+          <t>22473</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>20549</t>
+          <t>18612</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>28686</t>
+          <t>26642</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,33%</t>
         </is>
       </c>
     </row>
@@ -2328,32 +2328,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4032</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2452</t>
+          <t>2077</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6369</t>
+          <t>5533</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,32 +2363,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5392</t>
+          <t>5199</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3489</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>7974</t>
+          <t>7589</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,32 +2398,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>9423</t>
+          <t>8792</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>6909</t>
+          <t>6397</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>12949</t>
+          <t>11962</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2476,17 +2476,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2558,32 +2558,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>70889</t>
+          <t>69328</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>68175</t>
+          <t>66432</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>73303</t>
+          <t>71615</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,2%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2593,32 +2593,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>120844</t>
+          <t>112783</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>117418</t>
+          <t>109904</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>123245</t>
+          <t>115243</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>90,95%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>88,63%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2628,17 +2628,17 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>191733</t>
+          <t>182111</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>187631</t>
+          <t>178171</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>195243</t>
+          <t>185544</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,43%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>92,08%</t>
         </is>
       </c>
     </row>
@@ -2671,32 +2671,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6026</t>
+          <t>5285</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4169</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8552</t>
+          <t>7517</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2706,32 +2706,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8090</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6103</t>
+          <t>5203</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11103</t>
+          <t>9443</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2741,32 +2741,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>14116</t>
+          <t>12357</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>11037</t>
+          <t>9820</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>17903</t>
+          <t>15938</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>7,91%</t>
         </is>
       </c>
     </row>
@@ -2784,32 +2784,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2174</t>
+          <t>2894</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3869</t>
+          <t>4833</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2819,32 +2819,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2587</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>6412</t>
+          <t>6369</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2854,32 +2854,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>6321</t>
+          <t>7042</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>4971</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>8863</t>
+          <t>9827</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,88%</t>
         </is>
       </c>
     </row>
@@ -2897,17 +2897,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2932,17 +2932,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2967,17 +2967,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3014,32 +3014,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>43149</t>
+          <t>47650</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>40900</t>
+          <t>45683</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>44665</t>
+          <t>49203</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>86,9%</t>
+          <t>89,14%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3049,32 +3049,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>112463</t>
+          <t>112102</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>110189</t>
+          <t>109059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>114634</t>
+          <t>114498</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3084,32 +3084,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>155612</t>
+          <t>159752</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>152087</t>
+          <t>155985</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>158208</t>
+          <t>162511</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>94,11%</t>
         </is>
       </c>
     </row>
@@ -3127,32 +3127,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3387</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5322</t>
+          <t>4841</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3162,32 +3162,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6401</t>
+          <t>6733</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4641</t>
+          <t>4992</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>8725</t>
+          <t>9350</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3197,32 +3197,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>9788</t>
+          <t>9652</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>7505</t>
+          <t>7145</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>13018</t>
+          <t>13170</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,63%</t>
         </is>
       </c>
     </row>
@@ -3240,102 +3240,102 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>676</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>2165</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>2608</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>5357</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>3285</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>1682</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>5733</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
           <t>3,32%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>1413</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>659</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>2670</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>2,22%</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>1945</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>1066</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>3509</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
-      <c r="V26" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="W26" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -3353,17 +3353,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3388,17 +3388,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3470,32 +3470,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>629032</t>
+          <t>653565</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>620917</t>
+          <t>646169</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>635526</t>
+          <t>660757</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3505,32 +3505,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>683152</t>
+          <t>724485</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>675538</t>
+          <t>716843</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>690469</t>
+          <t>731127</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>89,42%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3540,32 +3540,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1312183</t>
+          <t>1378050</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1300583</t>
+          <t>1367939</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1321322</t>
+          <t>1387555</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>90,25%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>89,45%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>91,39%</t>
         </is>
       </c>
     </row>
@@ -3583,32 +3583,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>48141</t>
+          <t>44442</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>42185</t>
+          <t>38977</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>55316</t>
+          <t>50766</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3618,32 +3618,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>49547</t>
+          <t>47569</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>43877</t>
+          <t>42381</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>56098</t>
+          <t>54250</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3653,32 +3653,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>97688</t>
+          <t>92012</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>89456</t>
+          <t>84498</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>107500</t>
+          <t>100406</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>6,61%</t>
         </is>
       </c>
     </row>
@@ -3696,102 +3696,102 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>21389</t>
+          <t>23398</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>17224</t>
+          <t>19252</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>25508</t>
+          <t>28228</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>24877</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>20835</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>29977</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>48275</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>42481</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>55361</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
           <t>3,65%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>22759</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>18968</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>27459</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
-        </is>
-      </c>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>3,63%</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>44148</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>38616</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>50465</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="V30" s="2" t="inlineStr">
-        <is>
-          <t>2,66%</t>
-        </is>
-      </c>
-      <c r="W30" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -3809,17 +3809,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3844,17 +3844,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">

--- a/data/trans_orig/PER_CONT_AIRE_OTROS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_OTROS-Clase-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente otro origen en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción contaminación atmosférica procedente otro origen en C.Valenciana (tasa de respuesta: 93,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>488</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>151541</t>
+          <t>278732</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>147901</t>
+          <t>271380</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>154721</t>
+          <t>284263</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>88,3%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>421</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>158571</t>
+          <t>245531</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>154597</t>
+          <t>235824</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>161483</t>
+          <t>253609</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>88,66%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>87,77%</t>
+          <t>85,15%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>909</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>310112</t>
+          <t>524263</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>304897</t>
+          <t>511239</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>314841</t>
+          <t>534551</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>90,25%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>89,36%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>93,43%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9341</t>
+          <t>15546</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6821</t>
+          <t>10295</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12223</t>
+          <t>22549</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11558</t>
+          <t>26307</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8834</t>
+          <t>18722</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14980</t>
+          <t>35548</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>20899</t>
+          <t>41853</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>16858</t>
+          <t>32169</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>24777</t>
+          <t>53682</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>9,38%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6617</t>
+          <t>894</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9303</t>
+          <t>4440</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5107</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4074</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8429</t>
+          <t>10001</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>12621</t>
+          <t>6001</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>9560</t>
+          <t>2895</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>16177</t>
+          <t>10601</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>1,85%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>295172</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>295172</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>295172</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1103,22 +1103,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1138,22 +1138,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>572117</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>572117</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>572117</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1185,107 +1185,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>83205</t>
+          <t>176580</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>80279</t>
+          <t>167696</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>85833</t>
+          <t>182282</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>85,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>363</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>113798</t>
+          <t>212870</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>110555</t>
+          <t>204945</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>116476</t>
+          <t>219108</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>94,53%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>679</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>197003</t>
+          <t>389451</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>192524</t>
+          <t>379051</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>200690</t>
+          <t>398193</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,18%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>88,73%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>93,21%</t>
         </is>
       </c>
     </row>
@@ -1298,107 +1298,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5663</t>
+          <t>15728</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3672</t>
+          <t>10652</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8206</t>
+          <t>23540</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7326</t>
+          <t>16717</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5279</t>
+          <t>10977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9820</t>
+          <t>23917</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>12989</t>
+          <t>32445</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>9975</t>
+          <t>24502</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>15986</t>
+          <t>42001</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>9,83%</t>
         </is>
       </c>
     </row>
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4015</t>
+          <t>3127</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>765</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6404</t>
+          <t>7565</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4461</t>
+          <t>2191</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2810</t>
+          <t>481</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6929</t>
+          <t>5976</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>8476</t>
+          <t>5318</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6224</t>
+          <t>2367</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>11820</t>
+          <t>11021</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -1524,22 +1524,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>195436</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>195436</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>195436</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1559,22 +1559,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>231778</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>231778</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>231778</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1594,22 +1594,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>739</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>427215</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>427215</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>427215</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1641,107 +1641,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>318</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>142155</t>
+          <t>167877</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>138330</t>
+          <t>161715</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>145013</t>
+          <t>172105</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,01%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>54696</t>
+          <t>76574</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>52679</t>
+          <t>72607</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>56467</t>
+          <t>79576</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>89,12%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>85,83%</t>
+          <t>88,2%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>464</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>196851</t>
+          <t>244452</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192307</t>
+          <t>237691</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>200508</t>
+          <t>250151</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>93,06%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>87,99%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>95,23%</t>
         </is>
       </c>
     </row>
@@ -1754,107 +1754,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9419</t>
+          <t>10415</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7199</t>
+          <t>6428</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12210</t>
+          <t>16527</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3126</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1175</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6648</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>8,08%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>4222</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>2852</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>6184</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>6,88%</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>10,08%</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13641</t>
+          <t>13541</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10626</t>
+          <t>8783</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>17182</t>
+          <t>19514</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -1867,107 +1867,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5603</t>
+          <t>2058</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>749</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8145</t>
+          <t>4868</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>2620</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>746</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>6361</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>8059</t>
+          <t>4678</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5886</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>11031</t>
+          <t>8857</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -1980,22 +1980,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2015,22 +2015,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2050,22 +2050,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>501</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,107 +2097,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>539</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>159685</t>
+          <t>285961</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>156315</t>
+          <t>277380</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>162537</t>
+          <t>292013</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>93,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>95,72%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>290314</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>281845</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>297030</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>91,95%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>89,27%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>94,08%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>576277</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>565173</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>585490</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
           <t>92,83%</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>960</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>172537</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>168850</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>175827</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>91,58%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>89,63%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>93,33%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>1876</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>332221</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>327367</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>336780</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>91,4%</t>
-        </is>
-      </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>94,31%</t>
         </is>
       </c>
     </row>
@@ -2210,107 +2210,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11815</t>
+          <t>16777</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9115</t>
+          <t>11247</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14777</t>
+          <t>25648</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10658</t>
+          <t>24568</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8116</t>
+          <t>17733</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13661</t>
+          <t>33040</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>22473</t>
+          <t>41345</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>18612</t>
+          <t>32629</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>26642</t>
+          <t>52142</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>8,4%</t>
         </is>
       </c>
     </row>
@@ -2323,107 +2323,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3593</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>799</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>5782</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5199</t>
+          <t>841</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>7589</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>8792</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>6397</t>
+          <t>958</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>11962</t>
+          <t>6781</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -2436,22 +2436,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>575</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>305059</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>305059</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>305059</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2471,22 +2471,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>315723</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>315723</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>315723</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2506,22 +2506,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>620783</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>620783</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>620783</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2553,107 +2553,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>69328</t>
+          <t>139027</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>66432</t>
+          <t>130537</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>71615</t>
+          <t>143797</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>89,45%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>86,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>245</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>112783</t>
+          <t>141950</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>109904</t>
+          <t>135059</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>115243</t>
+          <t>146715</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>487</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>182111</t>
+          <t>280978</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>178171</t>
+          <t>270078</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>185544</t>
+          <t>288445</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,42%</t>
+          <t>88,61%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>94,63%</t>
         </is>
       </c>
     </row>
@@ -2666,107 +2666,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5285</t>
+          <t>10922</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3432</t>
+          <t>6140</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7517</t>
+          <t>19411</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>10145</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>5203</t>
+          <t>6219</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>9443</t>
+          <t>16644</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>12357</t>
+          <t>21067</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>9820</t>
+          <t>13997</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>15938</t>
+          <t>30833</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>10,12%</t>
         </is>
       </c>
     </row>
@@ -2779,107 +2779,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2894</t>
+          <t>335</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4833</t>
+          <t>1772</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4147</t>
+          <t>2426</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>641</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>6369</t>
+          <t>6549</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>7042</t>
+          <t>2761</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>4971</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>9827</t>
+          <t>7115</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>2,33%</t>
         </is>
       </c>
     </row>
@@ -2892,22 +2892,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2927,22 +2927,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>154521</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>154521</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>154521</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2962,22 +2962,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>526</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>304806</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>304806</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>304806</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3009,107 +3009,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>47650</t>
+          <t>8205</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>45683</t>
+          <t>6629</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>49203</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>77,09%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>112102</t>
+          <t>10645</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>109059</t>
+          <t>8125</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>114498</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>93,36%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>89,8%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>159752</t>
+          <t>18850</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>155985</t>
+          <t>16103</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>162511</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>80,51%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -3122,107 +3122,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2919</t>
+          <t>394</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4841</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6733</t>
+          <t>757</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4992</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>9350</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>9652</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>7145</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>13170</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -3235,107 +3235,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2165</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>5357</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>3285</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1682</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>5733</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3348,22 +3348,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3383,22 +3383,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3418,22 +3418,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3465,107 +3465,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3634</t>
+          <t>1916</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>653565</t>
+          <t>1056384</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>646169</t>
+          <t>1039162</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>660757</t>
+          <t>1069859</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>91,59%</t>
+          <t>94,27%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>724485</t>
+          <t>977885</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>716843</t>
+          <t>962025</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>731127</t>
+          <t>991551</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>7643</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1378050</t>
+          <t>2034270</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1367939</t>
+          <t>2012992</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1387555</t>
+          <t>2055152</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>90,09%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>93,09%</t>
         </is>
       </c>
     </row>
@@ -3578,107 +3578,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>44442</t>
+          <t>69782</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>38977</t>
+          <t>57752</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>50766</t>
+          <t>85442</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>47569</t>
+          <t>81620</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>42381</t>
+          <t>68600</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>54250</t>
+          <t>95942</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>256</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>92012</t>
+          <t>151402</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>84498</t>
+          <t>131144</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>100406</t>
+          <t>172323</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>7,81%</t>
         </is>
       </c>
     </row>
@@ -3691,107 +3691,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>23398</t>
+          <t>8736</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>19252</t>
+          <t>4862</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>28228</t>
+          <t>15184</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>24877</t>
+          <t>13184</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>20835</t>
+          <t>8269</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>29977</t>
+          <t>20174</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>37</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>48275</t>
+          <t>21920</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>42481</t>
+          <t>14876</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>55361</t>
+          <t>29921</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -3804,22 +3804,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>2056</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>1134902</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>1134902</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>1134902</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3839,22 +3839,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>1072689</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>1072689</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>1072689</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3874,22 +3874,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>8426</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>2207592</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>2207592</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>2207592</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3978,7 +3978,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente otro origen en C.Valenciana (tasa de respuesta: 93,59%)</t>
+          <t>Percepción contaminación atmosférica procedente otro origen en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4163,107 +4163,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>772</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>278732</t>
+          <t>151541</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>271380</t>
+          <t>147901</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>284263</t>
+          <t>154721</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>787</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>245531</t>
+          <t>158571</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>235824</t>
+          <t>154597</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>253609</t>
+          <t>161483</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>88,66%</t>
+          <t>90,03%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>85,15%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>1559</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>524263</t>
+          <t>310112</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>511239</t>
+          <t>304897</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>534551</t>
+          <t>314841</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>90,25%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>89,36%</t>
+          <t>88,73%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>91,62%</t>
         </is>
       </c>
     </row>
@@ -4276,107 +4276,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15546</t>
+          <t>9341</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10295</t>
+          <t>6821</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22549</t>
+          <t>12223</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26307</t>
+          <t>11558</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18722</t>
+          <t>8834</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35548</t>
+          <t>14980</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>113</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>41853</t>
+          <t>20899</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>32169</t>
+          <t>16858</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>53682</t>
+          <t>24777</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>7,21%</t>
         </is>
       </c>
     </row>
@@ -4389,107 +4389,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>6617</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4440</t>
+          <t>9303</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5107</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10001</t>
+          <t>8429</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>6001</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>9560</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>10601</t>
+          <t>16177</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -4502,22 +4502,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>295172</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>295172</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>295172</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4537,22 +4537,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4572,22 +4572,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>572117</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>572117</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>572117</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4619,107 +4619,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>176580</t>
+          <t>83205</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>167696</t>
+          <t>80279</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>182282</t>
+          <t>85833</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>85,81%</t>
+          <t>86,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>609</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>212870</t>
+          <t>113798</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>204945</t>
+          <t>110555</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>219108</t>
+          <t>116476</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>88,42%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>389451</t>
+          <t>197003</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>379051</t>
+          <t>192524</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>398193</t>
+          <t>200690</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>90,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>88,13%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>91,86%</t>
         </is>
       </c>
     </row>
@@ -4732,107 +4732,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15728</t>
+          <t>5663</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10652</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23540</t>
+          <t>8206</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16717</t>
+          <t>7326</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10977</t>
+          <t>5279</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23917</t>
+          <t>9820</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>32445</t>
+          <t>12989</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>24502</t>
+          <t>9975</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>42001</t>
+          <t>15986</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -4845,107 +4845,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3127</t>
+          <t>4015</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7565</t>
+          <t>6404</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2191</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5976</t>
+          <t>6929</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>41</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5318</t>
+          <t>8476</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2367</t>
+          <t>6224</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>11021</t>
+          <t>11820</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>5,41%</t>
         </is>
       </c>
     </row>
@@ -4958,22 +4958,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>195436</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>195436</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>195436</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4993,22 +4993,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>231778</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>231778</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>231778</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5028,22 +5028,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>427215</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>427215</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>427215</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5075,107 +5075,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>840</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>167877</t>
+          <t>142155</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>161715</t>
+          <t>138330</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>172105</t>
+          <t>145013</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>90,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>327</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>76574</t>
+          <t>54696</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>72607</t>
+          <t>52679</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>79576</t>
+          <t>56467</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>244452</t>
+          <t>196851</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>237691</t>
+          <t>192307</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>250151</t>
+          <t>200508</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>90,07%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>90,49%</t>
+          <t>87,99%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>91,74%</t>
         </is>
       </c>
     </row>
@@ -5188,107 +5188,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10415</t>
+          <t>9419</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6428</t>
+          <t>7199</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16527</t>
+          <t>12210</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6648</t>
+          <t>6184</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13541</t>
+          <t>13641</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>8783</t>
+          <t>10626</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>19514</t>
+          <t>17182</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,86%</t>
         </is>
       </c>
     </row>
@@ -5301,107 +5301,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2058</t>
+          <t>5603</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4868</t>
+          <t>8145</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6361</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>43</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4678</t>
+          <t>8059</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2135</t>
+          <t>5886</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>8857</t>
+          <t>11031</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -5414,22 +5414,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5449,22 +5449,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5484,22 +5484,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5531,107 +5531,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>916</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>285961</t>
+          <t>159685</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>277380</t>
+          <t>156315</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>292013</t>
+          <t>162537</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>960</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>290314</t>
+          <t>172537</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>281845</t>
+          <t>168850</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>297030</t>
+          <t>175827</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>1876</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>576277</t>
+          <t>332221</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>565173</t>
+          <t>327367</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>585490</t>
+          <t>336780</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>92,65%</t>
         </is>
       </c>
     </row>
@@ -5644,107 +5644,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16777</t>
+          <t>11815</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11247</t>
+          <t>9115</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25648</t>
+          <t>14777</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24568</t>
+          <t>10658</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17733</t>
+          <t>8116</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>33040</t>
+          <t>13661</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>137</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>41345</t>
+          <t>22473</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>32629</t>
+          <t>18612</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>52142</t>
+          <t>26642</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>7,33%</t>
         </is>
       </c>
     </row>
@@ -5757,107 +5757,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2321</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>2077</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5782</t>
+          <t>5533</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>5199</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>7589</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>3162</t>
+          <t>8792</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>6397</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>6781</t>
+          <t>11962</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -5870,22 +5870,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>305059</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>305059</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>305059</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5905,22 +5905,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>315723</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>315723</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>315723</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5940,22 +5940,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>620783</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>620783</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>620783</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5987,107 +5987,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>139027</t>
+          <t>69328</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>130537</t>
+          <t>66432</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>143797</t>
+          <t>71615</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,86%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>679</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>141950</t>
+          <t>112783</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>135059</t>
+          <t>109904</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>146715</t>
+          <t>115243</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>90,95%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>88,63%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>280978</t>
+          <t>182111</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>270078</t>
+          <t>178171</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>288445</t>
+          <t>185544</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>90,37%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>92,08%</t>
         </is>
       </c>
     </row>
@@ -6100,107 +6100,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10922</t>
+          <t>5285</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6140</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>19411</t>
+          <t>7517</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10145</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6219</t>
+          <t>5203</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>16644</t>
+          <t>9443</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>21067</t>
+          <t>12357</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>13997</t>
+          <t>9820</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>30833</t>
+          <t>15938</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>7,91%</t>
         </is>
       </c>
     </row>
@@ -6213,107 +6213,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>2894</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1772</t>
+          <t>4833</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2426</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>6549</t>
+          <t>6369</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>7042</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>4971</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>7115</t>
+          <t>9827</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>4,88%</t>
         </is>
       </c>
     </row>
@@ -6326,22 +6326,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6361,22 +6361,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>154521</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>154521</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>154521</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6396,22 +6396,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>304806</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>304806</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>304806</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6443,107 +6443,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8205</t>
+          <t>47650</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6629</t>
+          <t>45683</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>49203</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>77,09%</t>
+          <t>89,14%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>647</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>10645</t>
+          <t>112102</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>8125</t>
+          <t>109059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>114498</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>71,26%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>900</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>18850</t>
+          <t>159752</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>16103</t>
+          <t>155985</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>162511</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>80,51%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,11%</t>
         </is>
       </c>
     </row>
@@ -6556,107 +6556,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>4841</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>6733</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4992</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>3277</t>
+          <t>9350</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>9652</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7145</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>3898</t>
+          <t>13170</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>7,63%</t>
         </is>
       </c>
     </row>
@@ -6669,107 +6669,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>676</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2165</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2608</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5357</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1682</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5733</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,32%</t>
         </is>
       </c>
     </row>
@@ -6782,22 +6782,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6817,22 +6817,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6852,22 +6852,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6899,107 +6899,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>3634</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1056384</t>
+          <t>653565</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1039162</t>
+          <t>646169</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1069859</t>
+          <t>660757</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>977885</t>
+          <t>724485</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>962025</t>
+          <t>716843</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>991551</t>
+          <t>731127</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>3620</t>
+          <t>7643</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>2034270</t>
+          <t>1378050</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>2012992</t>
+          <t>1367939</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>2055152</t>
+          <t>1387555</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>91,39%</t>
         </is>
       </c>
     </row>
@@ -7012,107 +7012,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>69782</t>
+          <t>44442</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>57752</t>
+          <t>38977</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>85442</t>
+          <t>50766</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>280</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>81620</t>
+          <t>47569</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>68600</t>
+          <t>42381</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>95942</t>
+          <t>54250</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>538</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>151402</t>
+          <t>92012</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>131144</t>
+          <t>84498</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>172323</t>
+          <t>100406</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>6,61%</t>
         </is>
       </c>
     </row>
@@ -7125,107 +7125,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8736</t>
+          <t>23398</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>4862</t>
+          <t>19252</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>15184</t>
+          <t>28228</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>128</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>13184</t>
+          <t>24877</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>8269</t>
+          <t>20835</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>20174</t>
+          <t>29977</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>245</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>21920</t>
+          <t>48275</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>14876</t>
+          <t>42481</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>29921</t>
+          <t>55361</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -7238,22 +7238,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2056</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1134902</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1134902</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1134902</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7273,22 +7273,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1072689</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>1072689</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>1072689</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>3913</t>
+          <t>8426</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>2207592</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>2207592</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>2207592</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
